--- a/pilot2.xlsx
+++ b/pilot2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/momo/Dropbox/projects/connectives-qud/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BC97CC5-30E9-5745-8392-75F18956649F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71B2375-6FCA-5C43-98A4-874FF7F10019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="500" windowWidth="28100" windowHeight="17440" xr2:uid="{F0C4A647-FAE2-464D-8F7C-7E37BC9B1625}"/>
+    <workbookView xWindow="2240" yWindow="500" windowWidth="31220" windowHeight="17440" activeTab="1" xr2:uid="{F0C4A647-FAE2-464D-8F7C-7E37BC9B1625}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="exp1" sheetId="1" r:id="rId1"/>
+    <sheet name="exp2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,13 +36,194 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="52">
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>tf</t>
+  </si>
+  <si>
+    <t>What letters are there?</t>
+  </si>
+  <si>
+    <t>Is there an A or an X?</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>There is an A and</t>
+  </si>
+  <si>
+    <t>there is no X.</t>
+  </si>
+  <si>
+    <t>rel_rel</t>
+  </si>
+  <si>
+    <t>but</t>
+  </si>
+  <si>
+    <t>There is an A but</t>
+  </si>
+  <si>
+    <t>ft</t>
+  </si>
+  <si>
+    <t>Is there an X or an A?</t>
+  </si>
+  <si>
+    <t>There is no X and</t>
+  </si>
+  <si>
+    <t>there is an A.</t>
+  </si>
+  <si>
+    <t>There is no X but</t>
+  </si>
+  <si>
+    <t>tt</t>
+  </si>
+  <si>
+    <t>Is there a A or a B?</t>
+  </si>
+  <si>
+    <t>ir_rel</t>
+  </si>
+  <si>
+    <t>rel_ir</t>
+  </si>
+  <si>
+    <t>Is there an A or a B?</t>
+  </si>
+  <si>
+    <t>there is a B.</t>
+  </si>
+  <si>
+    <t>There is a B and</t>
+  </si>
+  <si>
+    <t>There is a B but</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Conj</t>
+  </si>
+  <si>
+    <t>SpecificQUD</t>
+  </si>
+  <si>
+    <t>GeneralQUD</t>
+  </si>
+  <si>
+    <t>Letters</t>
+  </si>
+  <si>
+    <t>Experiment 2: Can the relevance of the answer to the QUD facilitate processing of 'but'?</t>
+  </si>
+  <si>
+    <t>Relevance</t>
+  </si>
+  <si>
+    <t>2 x 2 Factorial</t>
+  </si>
+  <si>
+    <t>QUD x Conjunction</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>QUDRelevant</t>
+  </si>
+  <si>
+    <t>TruthRelevant</t>
+  </si>
+  <si>
+    <t>ir_</t>
+  </si>
+  <si>
+    <t>Is there an A?</t>
+  </si>
+  <si>
+    <t>Is there a C?</t>
+  </si>
+  <si>
+    <t>Is there an X?</t>
+  </si>
+  <si>
+    <t>Do the letters spell a word?</t>
+  </si>
+  <si>
+    <t>Can you make a word out of them?</t>
+  </si>
+  <si>
+    <t>Are there any vowels?</t>
+  </si>
+  <si>
+    <t>Are there any consonants?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>there are no consonants</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>there's an A</t>
+  </si>
+  <si>
+    <t>you can't.</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>you can.</t>
+  </si>
+  <si>
+    <t>Experiment 2: Does the QUD facilitate processing of 'but' compared to 'and'?</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="ArialMT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -65,8 +247,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,12 +569,613 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BEB701-FBD9-B24C-B12B-D6FF2BF2D09D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="180" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="3"/>
+    <col min="2" max="2" width="7.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="3"/>
+    <col min="7" max="7" width="18" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="10.7109375" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="28">
+      <c r="A1" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="6" customFormat="1">
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8">
+      <c r="E19" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8">
+      <c r="E20" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8">
+      <c r="E21" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8">
+      <c r="E24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8">
+      <c r="E25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8">
+      <c r="E26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8">
+      <c r="E27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B8F45F-AEEC-434D-BDFA-A0E4FDBB735D}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="189" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="28">
+      <c r="A1" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="28">
+      <c r="A2" s="5"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" s="3" customFormat="1">
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/pilot2.xlsx
+++ b/pilot2.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/momo/Dropbox/projects/connectives-qud/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71B2375-6FCA-5C43-98A4-874FF7F10019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBE3CD3-A1CA-274F-A61D-5F1E4D573FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="500" windowWidth="31220" windowHeight="17440" activeTab="1" xr2:uid="{F0C4A647-FAE2-464D-8F7C-7E37BC9B1625}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="35520" windowHeight="17440" activeTab="2" xr2:uid="{F0C4A647-FAE2-464D-8F7C-7E37BC9B1625}"/>
   </bookViews>
   <sheets>
-    <sheet name="exp1" sheetId="1" r:id="rId1"/>
-    <sheet name="exp2" sheetId="2" r:id="rId2"/>
+    <sheet name="exp1 template" sheetId="1" r:id="rId1"/>
+    <sheet name="exp1 items - specific qud" sheetId="3" r:id="rId2"/>
+    <sheet name="exp1 fillers - specific qud" sheetId="4" r:id="rId3"/>
+    <sheet name="exp1 items - general qud" sheetId="5" r:id="rId4"/>
+    <sheet name="exp1 fillers - general qud" sheetId="6" r:id="rId5"/>
+    <sheet name="exp2" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="150">
   <si>
     <t>ABC</t>
   </si>
@@ -117,6 +121,9 @@
     <t>Conj</t>
   </si>
   <si>
+    <t>QUD</t>
+  </si>
+  <si>
     <t>SpecificQUD</t>
   </si>
   <si>
@@ -193,6 +200,297 @@
   </si>
   <si>
     <t>Experiment 2: Does the QUD facilitate processing of 'but' compared to 'and'?</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>QUDTruth</t>
+  </si>
+  <si>
+    <t>Questioner</t>
+  </si>
+  <si>
+    <t>Answerer</t>
+  </si>
+  <si>
+    <t>AnswerConj1</t>
+  </si>
+  <si>
+    <t>AnswerConj2</t>
+  </si>
+  <si>
+    <t>QUDType</t>
+  </si>
+  <si>
+    <t>Specific</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>VGW</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
+    <t>Fox</t>
+  </si>
+  <si>
+    <t>Is there a G or an X?</t>
+  </si>
+  <si>
+    <t>There is a G and</t>
+  </si>
+  <si>
+    <t>PBN</t>
+  </si>
+  <si>
+    <t>Is there a P or an L?</t>
+  </si>
+  <si>
+    <t>There is a P but</t>
+  </si>
+  <si>
+    <t>there is no L.</t>
+  </si>
+  <si>
+    <t>JLP</t>
+  </si>
+  <si>
+    <t>Is there a U or a J?</t>
+  </si>
+  <si>
+    <t>There is no U and</t>
+  </si>
+  <si>
+    <t>there is a J.</t>
+  </si>
+  <si>
+    <t>QDR</t>
+  </si>
+  <si>
+    <t>Is there a V or a D?</t>
+  </si>
+  <si>
+    <t>There is no V but</t>
+  </si>
+  <si>
+    <t>there is a D.</t>
+  </si>
+  <si>
+    <t>OTY</t>
+  </si>
+  <si>
+    <t>Is there a T or an R?</t>
+  </si>
+  <si>
+    <t>There is a T and</t>
+  </si>
+  <si>
+    <t>there is no R.</t>
+  </si>
+  <si>
+    <t>JXO</t>
+  </si>
+  <si>
+    <t>Is there an X or a W?</t>
+  </si>
+  <si>
+    <t>There is an X but</t>
+  </si>
+  <si>
+    <t>there is no W.</t>
+  </si>
+  <si>
+    <t>XDS</t>
+  </si>
+  <si>
+    <t>Is there an O or an X?</t>
+  </si>
+  <si>
+    <t>There is no O and</t>
+  </si>
+  <si>
+    <t>there is an X.</t>
+  </si>
+  <si>
+    <t>UOP</t>
+  </si>
+  <si>
+    <t>Is there an F or a U?</t>
+  </si>
+  <si>
+    <t>There is no F but</t>
+  </si>
+  <si>
+    <t>there is a U.</t>
+  </si>
+  <si>
+    <t>TrialType</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>SentType</t>
+  </si>
+  <si>
+    <t>Is there a Q?</t>
+  </si>
+  <si>
+    <t>TSA</t>
+  </si>
+  <si>
+    <t>BGQ</t>
+  </si>
+  <si>
+    <t>AYU</t>
+  </si>
+  <si>
+    <t>Is there a B or a Z ?</t>
+  </si>
+  <si>
+    <t>There is an S and</t>
+  </si>
+  <si>
+    <t>there is no H.</t>
+  </si>
+  <si>
+    <t>Is there an S or an H?</t>
+  </si>
+  <si>
+    <t>there is no Z.</t>
+  </si>
+  <si>
+    <t>RDV</t>
+  </si>
+  <si>
+    <t>Is there an I or a V?</t>
+  </si>
+  <si>
+    <t>There is no I and</t>
+  </si>
+  <si>
+    <t>there is a V.</t>
+  </si>
+  <si>
+    <t>Is there an E or an A?</t>
+  </si>
+  <si>
+    <t>There is no E but</t>
+  </si>
+  <si>
+    <t>there is no Q.</t>
+  </si>
+  <si>
+    <t>control_false</t>
+  </si>
+  <si>
+    <t>control_true</t>
+  </si>
+  <si>
+    <t>URW</t>
+  </si>
+  <si>
+    <t>HDA</t>
+  </si>
+  <si>
+    <t>EVF</t>
+  </si>
+  <si>
+    <t>PLM</t>
+  </si>
+  <si>
+    <t>CNF</t>
+  </si>
+  <si>
+    <t>TJQ</t>
+  </si>
+  <si>
+    <t>SFI</t>
+  </si>
+  <si>
+    <t>NGU</t>
+  </si>
+  <si>
+    <t>WKD</t>
+  </si>
+  <si>
+    <t>ETU</t>
+  </si>
+  <si>
+    <t>BSX</t>
+  </si>
+  <si>
+    <t>LPI</t>
+  </si>
+  <si>
+    <t>there are both.</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>there is neither.</t>
+  </si>
+  <si>
+    <t>Is there an S or an F?</t>
+  </si>
+  <si>
+    <t>Is there an N or a G?</t>
+  </si>
+  <si>
+    <t>disjunction</t>
+  </si>
+  <si>
+    <t>Is there an R or a P?</t>
+  </si>
+  <si>
+    <t>there is no C.</t>
+  </si>
+  <si>
+    <t>Is there an L?</t>
+  </si>
+  <si>
+    <t>there is an L.</t>
+  </si>
+  <si>
+    <t>How many letters are there?</t>
+  </si>
+  <si>
+    <t>Are there three letters?</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Is there a D?</t>
+  </si>
+  <si>
+    <t>Is there a W?</t>
+  </si>
+  <si>
+    <t>Is there an S?</t>
+  </si>
+  <si>
+    <t>Is there an E?</t>
+  </si>
+  <si>
+    <t>there is no E.</t>
+  </si>
+  <si>
+    <t>there is an S.</t>
+  </si>
+  <si>
+    <t>Is there a U?</t>
+  </si>
+  <si>
+    <t>there is a W.</t>
+  </si>
+  <si>
+    <t>there is no U.</t>
   </si>
 </sst>
 </file>
@@ -227,15 +525,27 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9A8BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6B6FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -243,18 +553,118 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BEB701-FBD9-B24C-B12B-D6FF2BF2D09D}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView zoomScale="180" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A10" zoomScale="180" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -589,40 +999,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28">
-      <c r="A1" s="5" t="s">
-        <v>51</v>
+      <c r="A1" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="8" customFormat="1">
+      <c r="B8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="6" customFormat="1">
-      <c r="B8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -761,7 +1171,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -781,66 +1191,66 @@
         <v>20</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="5:8">
       <c r="E19" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="5:8">
       <c r="E20" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="5:8">
       <c r="E21" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="5:8">
       <c r="E24" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="5:8">
       <c r="E25" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="5:8">
       <c r="E26" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="5:8">
       <c r="E27" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -849,11 +1259,1836 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7427953-72D7-5E44-B560-EE606AA99B16}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView zoomScale="137" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>5</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="20">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12">
+        <v>8</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>5</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="19">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12">
+        <v>8</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="19">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="19">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="20">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12">
+        <v>8</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1721825-E163-6D48-815C-08B8D1F95F62}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="26">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="26">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="26">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="26">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="26">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="26">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="26">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="26">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="26">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="26">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="26">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA626DD2-F5F2-114E-94A0-A6805047F222}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>5</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="20">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12">
+        <v>8</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>5</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="19">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12">
+        <v>8</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="19">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="19">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="20">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12">
+        <v>8</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3305A46D-87DC-3C45-A46F-8B307D9BE85B}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView zoomScale="178" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="8" max="8" width="22.140625" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="26">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="26">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="26">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="26">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="26">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="26">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="26">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="26">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="26">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="26">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="26">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B8F45F-AEEC-434D-BDFA-A0E4FDBB735D}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="189" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="B2" zoomScale="189" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -867,22 +3102,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="28">
-      <c r="A1" s="5" t="s">
-        <v>29</v>
+      <c r="A1" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28">
-      <c r="A2" s="5"/>
+      <c r="A2" s="7"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -912,30 +3147,30 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:10" s="3" customFormat="1">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>35</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -967,7 +3202,7 @@
         <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:10">
